--- a/output/adam_team.xlsx
+++ b/output/adam_team.xlsx
@@ -103,12 +103,6 @@
     <t>xPts_1_6</t>
   </si>
   <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Derrick White</t>
-  </si>
-  <si>
     <t>Neemias Queta</t>
   </si>
   <si>
@@ -118,13 +112,16 @@
     <t>LaMelo Ball</t>
   </si>
   <si>
+    <t>Cade Cunningham</t>
+  </si>
+  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
     <t>Jonathan Kuminga</t>
   </si>
   <si>
-    <t>Johnny Furphy</t>
+    <t>Andrew Nembhard</t>
   </si>
   <si>
     <t>Luka Doncic</t>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>Jaylin Williams</t>
+  </si>
+  <si>
+    <t>Jrue Holiday</t>
   </si>
   <si>
     <t>Yang Hansen</t>
@@ -591,22 +591,22 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>56.92</v>
+        <v>26.89</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -651,45 +651,45 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>48.91</v>
+        <v>24.38</v>
       </c>
       <c r="V2">
         <v>1</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>52.71</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="C3">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>42.19</v>
+        <v>24.92</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -734,25 +734,25 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>24.18</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -764,27 +764,27 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>38.89</v>
+        <v>25.83</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -796,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.89</v>
+        <v>52.78</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -820,28 +820,28 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>24.38</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>52.06</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -853,27 +853,27 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>25.08</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>24.92</v>
+        <v>58.38</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -912,25 +912,25 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>52.19</v>
       </c>
       <c r="V5">
         <v>1</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>24.18</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -942,12 +942,12 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>25.83</v>
+        <v>52.85</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -959,22 +959,22 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>43.21</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -983,72 +983,72 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>52.78</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>47.1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>43.96</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>52.06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>54.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7">
-        <v>183</v>
+        <v>620</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>43.21</v>
+        <v>27.8</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>47.1</v>
+        <v>30.27</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>43.96</v>
+        <v>28.75</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8">
-        <v>620</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1134,7 +1134,7 @@
         <v>85</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1143,13 +1143,13 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1173,54 +1173,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30.27</v>
+        <v>29.89</v>
       </c>
       <c r="R8">
         <v>1</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>28.75</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>31.65</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1232,16 +1232,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>63.41</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1253,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.33</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>62.28</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>11.94</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1298,24 +1298,24 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>11.18</v>
+        <v>62.41</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1324,13 +1324,13 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>63.41</v>
+        <v>56.71</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>56.3</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1363,22 +1363,22 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>62.28</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>59.79</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1387,24 +1387,24 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>62.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>56.71</v>
+        <v>15.68</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>56.3</v>
+        <v>15.48</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>59.79</v>
+        <v>16.26</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1481,16 +1481,16 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12">
-        <v>417</v>
+        <v>491</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1499,61 +1499,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.68</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>29.22</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.48</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>29.9</v>
       </c>
       <c r="V12">
         <v>1</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>16.26</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1648,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0</v>

--- a/output/adam_team.xlsx
+++ b/output/adam_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -31,18 +31,6 @@
     <t>current</t>
   </si>
   <si>
-    <t>squad_1_1</t>
-  </si>
-  <si>
-    <t>team_1_1</t>
-  </si>
-  <si>
-    <t>cap_1_1</t>
-  </si>
-  <si>
-    <t>xPts_1_1</t>
-  </si>
-  <si>
     <t>squad_1_2</t>
   </si>
   <si>
@@ -122,9 +110,6 @@
   </si>
   <si>
     <t>Andrew Nembhard</t>
-  </si>
-  <si>
-    <t>Luka Doncic</t>
   </si>
   <si>
     <t>Shai Gilgeous-Alexander</t>
@@ -494,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,25 +561,13 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>55</v>
@@ -603,87 +576,75 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>26.89</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>26.89</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>24.38</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>24.38</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
         <v>25.08</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>65</v>
@@ -692,31 +653,31 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>24.92</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>24.92</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -734,13 +695,13 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>24.18</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -752,27 +713,15 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>24.18</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
         <v>25.83</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>150</v>
@@ -793,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>52.78</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -805,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>52.78</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -820,16 +769,16 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>52.06</v>
       </c>
       <c r="V4">
         <v>1</v>
@@ -841,27 +790,15 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>52.06</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
         <v>54.44</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>170</v>
@@ -873,84 +810,72 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>58.38</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>58.38</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>52.19</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>52.19</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
         <v>52.85</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>150</v>
@@ -965,25 +890,25 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>43.21</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>47.1</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -995,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>47.1</v>
+        <v>43.96</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>43.96</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1021,25 +946,13 @@
       <c r="Y6">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>620</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>85</v>
@@ -1048,31 +961,31 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>30.27</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1084,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30.27</v>
+        <v>28.75</v>
       </c>
       <c r="R7">
         <v>1</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>28.75</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1110,25 +1023,13 @@
       <c r="Y7">
         <v>0</v>
       </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>85</v>
@@ -1137,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1155,37 +1056,37 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>29.89</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29.89</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>31.65</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -1197,63 +1098,51 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>31.65</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
         <v>29.6</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:25">
       <c r="A9">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>63.41</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>56.3</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1265,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>62.28</v>
+        <v>59.79</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1288,31 +1177,19 @@
       <c r="Y9">
         <v>0</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>62.41</v>
-      </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:25">
       <c r="A10">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1321,203 +1198,179 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>56.71</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.48</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>56.3</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>16.26</v>
       </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>59.79</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:25">
       <c r="A11">
-        <v>417</v>
+        <v>491</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>29.22</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>29.9</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12">
+        <v>506</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>15.68</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>15.48</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>16.26</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12">
-        <v>491</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12">
-        <v>90</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>20.75</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>29.22</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1529,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>21.61</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>1</v>
@@ -1553,107 +1406,6 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13">
-        <v>506</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>20.75</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>21.61</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>1</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
         <v>19.82</v>
       </c>
     </row>
